--- a/examples/javascript/Test/WithExcel/WithExcel/Book1.xlsx
+++ b/examples/javascript/Test/WithExcel/WithExcel/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="607" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>double it</t>
+  </si>
+  <si>
+    <t>sum em</t>
+  </si>
   <si>
     <t>df</t>
   </si>
@@ -32,19 +38,22 @@
   </si>
   <si>
     <t>ddd</t>
+  </si>
+  <si>
+    <t>goo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="165"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
       <color rgb="00000000"/>
       <sz val="11"/>
@@ -64,16 +73,47 @@
       <family val="0"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="00C0C0C0"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00FF0000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00000080"/>
+        <bgColor rgb="00000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6E6FF"/>
+        <bgColor rgb="00CCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
@@ -81,8 +121,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="00000080"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color rgb="00000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="00000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="hair">
+        <color rgb="00000080"/>
+      </right>
+      <top style="hair">
+        <color rgb="00000080"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="00000080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="hair">
+        <color rgb="00000080"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="00000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="00000080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color rgb="00000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="hair">
+        <color rgb="00000080"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="00000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="hair">
+        <color rgb="00000080"/>
+      </left>
+      <right style="hair">
+        <color rgb="00000080"/>
+      </right>
+      <top style="hair">
+        <color rgb="00000080"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="00000080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="32">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -106,18 +248,140 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="4" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="0" numFmtId="165">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="3" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="4" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="5" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="6" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="7" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="8" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="9" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="10" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="18">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Background" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Card" xfId="21"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Input" xfId="22"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Card TL" xfId="23"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Card T" xfId="24"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Card TR" xfId="25"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Card L" xfId="26"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Card R" xfId="27"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Card B" xfId="28"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Card BL" xfId="29"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Card BR" xfId="30"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Column Header" xfId="31"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00E6E6FF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -126,37 +390,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C8:E17"/>
+  <dimension ref="B3:E17"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C17" activeCellId="0" pane="topLeft" sqref="C17"/>
+      <selection activeCell="I14" activeCellId="0" pane="topLeft" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="3">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="4">
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">B4*2</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">SUM(B4:C4)</f>
+        <v>9</v>
+      </c>
+    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="8">
       <c r="C8" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="13">
       <c r="D13" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="16">
       <c r="C16" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="17">
       <c r="C17" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -175,16 +460,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.93725490196078"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="3">
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -207,7 +498,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.93725490196078"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
